--- a/biology/Botanique/Ranunculus_gramineus/Ranunculus_gramineus.xlsx
+++ b/biology/Botanique/Ranunculus_gramineus/Ranunculus_gramineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renoncule graminée, Renoncule à feuilles de graminée
 Ranunculus gramineus, de noms communs Renoncule graminée, Renoncule graminoïde ou Renoncule à feuilles de graminée, est une espèce de plantes à fleurs de la famille des Ranunculaceae.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 10 à 50 cm de hauteur, glauque, à souche courte entourée de fibres (restes des anciennes feuilles). La tige florifère est simple ou peu ramifiée. Les feuilles en rosette basale, nombreuses, sont très étroites, sessiles, pointues au sommet, à nervures parallèles, la nervure principale étant peu distincte des autres ; les feuilles caulinaires sont peu nombreuses, sessiles, plus petites[1].
-Appareil reproducteur
-Les fleurs sont jaunes de 2 cm de diamètre environ, groupées par 1 à 3 ; les sépales sont glabres ; les pétales triangulaires ; les carpelles sont en tête hémisphérique, fortement ridés, dépourvus de carène, à bec très court. La floraison a lieu d'avril à juin[1] ou juillet[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 10 à 50 cm de hauteur, glauque, à souche courte entourée de fibres (restes des anciennes feuilles). La tige florifère est simple ou peu ramifiée. Les feuilles en rosette basale, nombreuses, sont très étroites, sessiles, pointues au sommet, à nervures parallèles, la nervure principale étant peu distincte des autres ; les feuilles caulinaires sont peu nombreuses, sessiles, plus petites.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Plante toxique</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Renoncule à feuilles de graminée est considérée comme vénéneuse ; les animaux entrant en contact avec la plante peuvent être affectés par des pustules. En cas d'ingestion, cela provoque des brûlures dans la bouche, des douleurs à l'estomac, des diarrhées et parfois des paralysies passagères[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont jaunes de 2 cm de diamètre environ, groupées par 1 à 3 ; les sépales sont glabres ; les pétales triangulaires ; les carpelles sont en tête hémisphérique, fortement ridés, dépourvus de carène, à bec très court. La floraison a lieu d'avril à juin ou juillet.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce thermophile, des pelouses sèches, des talus, des sous-bois clairs, jusqu'à 1500 m d'altitude[4] ; en général sur sol calcaire[1].
+          <t>Plante toxique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Renoncule à feuilles de graminée est considérée comme vénéneuse ; les animaux entrant en contact avec la plante peuvent être affectés par des pustules. En cas d'ingestion, cela provoque des brûlures dans la bouche, des douleurs à l'estomac, des diarrhées et parfois des paralysies passagères.
 </t>
         </is>
       </c>
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce ouest-méditerranéenne, présente du Portugal à la France et à l'Italie et la Sardaigne sur les rives nord[2], et du Maroc à la Kabylie sur les rives sud. Elle est disséminée en France : présente surtout dans le Midi, dans les Alpes, le Massif du Jura, la Bourgogne, les Causses et les Cévennes, le Poitou, l'Aunis et la Saintonge ; elle est plus rare dans les Pyrénées et les Corbières, très rare ou absente dans le nord, le nord-est, la Normandie et la Bretagne[1].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce thermophile, des pelouses sèches, des talus, des sous-bois clairs, jusqu'à 1500 m d'altitude ; en général sur sol calcaire.
 </t>
         </is>
       </c>
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce ouest-méditerranéenne, présente du Portugal à la France et à l'Italie et la Sardaigne sur les rives nord, et du Maroc à la Kabylie sur les rives sud. Elle est disséminée en France : présente surtout dans le Midi, dans les Alpes, le Massif du Jura, la Bourgogne, les Causses et les Cévennes, le Poitou, l'Aunis et la Saintonge ; elle est plus rare dans les Pyrénées et les Corbières, très rare ou absente dans le nord, le nord-est, la Normandie et la Bretagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ranunculus_gramineus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ranunculus_gramineus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ranunculus gramineus var. bulbosus Timb.-Lagr. ex Rouy &amp; Foucaud, 1893
 Ranunculus gramineus var. linearis DC., 1817
@@ -647,7 +707,7 @@
 Ranunculus gramineus var. scorzonerifolius Freyn, 1880
 Ranunculus graminifolius Salisb., 1796
 Ranunculus luzulifolius (Boiss.) Amo, 1873
-Xerodera graminea (L.) Fourr., 1868[5]</t>
+Xerodera graminea (L.) Fourr., 1868</t>
         </is>
       </c>
     </row>
